--- a/pred_ohlcv/54_21/2020-01-13 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 DASH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>412.1814</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>429.8304</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>429.8904</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>429.7951</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>429.8051</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>429.7351</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>430.00801134</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>431.60031134</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>431.60031134</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>431.60031134</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>431.60031134</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>431.60031134</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>442.01261134</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>416.98471134</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>376.53731134</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>365.35361134</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-252.9036435099999</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-237.2706435099998</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-324.3492504499998</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-305.7943504499999</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-292.9533504499998</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-301.3033504499999</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-301.3033504499999</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-297.1433504499998</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-286.6833504499999</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-290.8433504499999</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-290.8433504499999</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-290.8433504499999</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-280.6833504499999</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-262.8533504499999</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-262.8533504499999</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-262.8533504499999</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-259.4853504499999</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-259.4853504499999</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-258.3343504499999</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-254.3343504499999</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-175.5916504499999</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-178.5916504499999</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-159.4366504499999</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-126.0533504499999</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-68.75545044999987</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-12.09113399999987</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-12.09113399999987</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>15.21086600000013</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-17.78973399999987</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-17.78973399999987</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-16.78973399999987</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>196.8670136200001</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>195.8670136200001</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>217.0147136200001</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>195.1330136200001</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>195.6530136200001</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>109.7359136200001</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>109.7429136200001</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>99.43951362000014</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>99.44651362000015</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>111.8870136200001</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>114.6934201300001</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>116.9379201300002</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>82.59462013000015</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>82.61462013000015</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>100.9958201300001</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>110.6096201300001</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>110.6096201300001</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>110.1984201300001</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>164.5988201300001</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>96.25572013000014</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>72.06952013000014</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>78.47985539000014</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>79.96696013000015</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>79.96696013000015</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>79.77376013000014</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>76.77376013000014</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-786.9568747999998</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-785.9403747999999</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-773.8434678899999</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-789.3477678899999</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-783.3477678899999</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-782.7866678899999</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-859.3401678899999</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-852.5657678899998</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-806.8543047499998</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-806.5164047499998</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-806.5164047499998</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-838.1296047499998</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-820.1880868999998</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-815.1259752499999</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 DASH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>412.1814</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>429.8304</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>429.8904</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>429.7951</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>429.8051</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>429.7351</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>430.00801134</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>431.60031134</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>431.60031134</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>431.60031134</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>431.60031134</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>431.60031134</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>442.01261134</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>416.98471134</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>416.98471134</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>376.53731134</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>365.35361134</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>196.8670136200001</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>195.8670136200001</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>217.0147136200001</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>195.1330136200001</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>195.6530136200001</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>109.7359136200001</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>109.7429136200001</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>99.43951362000014</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>99.44651362000015</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>111.8870136200001</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>114.6934201300001</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>116.9379201300002</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>82.59462013000015</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>82.61462013000015</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>100.9958201300001</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>110.6096201300001</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>110.6096201300001</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>110.1984201300001</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>164.5988201300001</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>96.25572013000014</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>72.06952013000014</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-857.9776678899999</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-859.3401678899999</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-853.8441678899999</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-852.5657678899998</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-856.7257678899998</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-806.8543047499998</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-806.5164047499998</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-806.5164047499998</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-838.1296047499998</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-820.1880868999998</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-815.1259752499999</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
